--- a/forms/contact/clinic-edit.xlsx
+++ b/forms/contact/clinic-edit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
@@ -208,6 +211,12 @@
   </si>
   <si>
     <t xml:space="preserve">Select the CHP Area for this family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Externe</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -345,7 +354,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -389,6 +398,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -468,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,15 +503,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,7 +523,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,7 +531,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,11 +547,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -537,11 +559,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,7 +693,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F32" activeCellId="1" sqref="K26 F32"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,7 +765,13 @@
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="b">
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -753,94 +781,100 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -849,331 +883,340 @@
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>36</v>
+      <c r="K11" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>41</v>
+      <c r="K12" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>45</v>
+      <c r="K13" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>48</v>
+      <c r="K14" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>52</v>
+      <c r="K15" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="M20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="21" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="5" t="b">
+      <c r="C21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="M21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5" t="b">
+      <c r="K21" s="7"/>
+      <c r="M21" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="C23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1228,7 +1271,7 @@
   <dimension ref="A1:C1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="K26 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1240,102 +1283,102 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>74</v>
+      <c r="C1" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>77</v>
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>79</v>
+      <c r="B3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>82</v>
+      <c r="A4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>87</v>
+      <c r="C7" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>90</v>
+      <c r="A8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>92</v>
+      <c r="B9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2352,7 +2395,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F49" activeCellId="1" sqref="K26 F49"/>
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2368,27 +2411,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="E1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="21"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2409,24 +2452,24 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="C2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
